--- a/biology/Botanique/Symphytum_bulbosum/Symphytum_bulbosum.xlsx
+++ b/biology/Botanique/Symphytum_bulbosum/Symphytum_bulbosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Symphytum bulbosum, nommée Consoude à bulbe ou Consoude bulbeuse en français[3],[4], est une espèce de plantes de la famille des Boraginaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Symphytum bulbosum, nommée Consoude à bulbe ou Consoude bulbeuse en français est une espèce de plantes de la famille des Boraginaceae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Spécimen d'herbier
@@ -544,10 +558,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite par le botaniste Karl (Carl) Friedrich Schimper (1803-1867)[1]. L'épithète spécifique bulbosum signifie « à tige renflée qui pousse sous terre et ressemble à un bulbe »[5].
-Dans la classification phylogénétique APG III (2009)[6], de même que dans la classification classique de Cronquist (1981)[7], elle est classée dans la famille des Boraginaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par le botaniste Karl (Carl) Friedrich Schimper (1803-1867). L'épithète spécifique bulbosum signifie « à tige renflée qui pousse sous terre et ressemble à un bulbe ».
+Dans la classification phylogénétique APG III (2009), de même que dans la classification classique de Cronquist (1981), elle est classée dans la famille des Boraginaceae.
 </t>
         </is>
       </c>
